--- a/Docs/Estimate/costs.xlsx
+++ b/Docs/Estimate/costs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julit\source\Projects\ClimbEdge\Docs\Estimate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107C855A-DD04-448D-830F-CBF496211323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C098C2AC-D5A9-42AA-ADFD-582F040A28B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5443361D-16A8-4F27-B5AC-62FADFB7C971}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5443361D-16A8-4F27-B5AC-62FADFB7C971}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Nombre</t>
   </si>
@@ -72,6 +73,51 @@
   </si>
   <si>
     <t>Plancha de madera triplex 18mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla </t>
+  </si>
+  <si>
+    <t>Pantalla de tinta electronica 2.13'' version HAT V4 wavesshare</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Convertidor 3.3v a 5v</t>
+  </si>
+  <si>
+    <t>Convertidor logico bidireccional</t>
+  </si>
+  <si>
+    <t>Funte 200W</t>
+  </si>
+  <si>
+    <t>Fuente de 5v a 40A</t>
+  </si>
+  <si>
+    <t>Micro SD</t>
+  </si>
+  <si>
+    <t>Micro SD de 128gb</t>
+  </si>
+  <si>
+    <t>Kit de rpi Zero 2w</t>
+  </si>
+  <si>
+    <t>Carcasa, pines, cables, etc</t>
+  </si>
+  <si>
+    <t>WS2812B Eco Led</t>
+  </si>
+  <si>
+    <t>300 leds son ip65</t>
+  </si>
+  <si>
+    <t>Presas</t>
+  </si>
+  <si>
+    <t>Presas varias</t>
   </si>
 </sst>
 </file>
@@ -118,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -132,12 +178,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
     <dxf>
       <font>
         <b val="0"/>
@@ -180,16 +227,37 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -217,22 +285,7 @@
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -248,17 +301,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF5ABBDF-1FEA-429C-AE86-38CF263D3E2A}" name="Table1" displayName="Table1" ref="A1:F6" totalsRowCount="1" headerRowDxfId="8">
-  <autoFilter ref="A1:F5" xr:uid="{EF5ABBDF-1FEA-429C-AE86-38CF263D3E2A}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF5ABBDF-1FEA-429C-AE86-38CF263D3E2A}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowCount="1" headerRowDxfId="12">
+  <autoFilter ref="A1:G11" xr:uid="{EF5ABBDF-1FEA-429C-AE86-38CF263D3E2A}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5AAFB984-C85B-4BF1-A918-1C571672DC61}" name="#" totalsRowLabel="Total">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D2CB7489-ABE1-4BBC-85FE-71BA53EDF6A4}" name="Nombre" dataDxfId="7" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C86D0AB4-DEB6-40A8-9392-93A7487C0EE6}" name="Descripción" dataDxfId="5" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D2CB7489-ABE1-4BBC-85FE-71BA53EDF6A4}" name="Nombre" dataDxfId="9" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C86D0AB4-DEB6-40A8-9392-93A7487C0EE6}" name="Descripción" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{F216D570-7ECE-4417-99A9-CCD3AF39DFEE}" name="Link" dataDxfId="8" totalsRowDxfId="3"/>
     <tableColumn id="4" xr3:uid="{30834DA3-1966-47EB-8A17-1138734385AE}" name="Cantidad" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E683EF20-9F04-489F-B245-87EE163DBC3E}" name="Valor" dataDxfId="10" totalsRowDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{6CBFF6F8-BBF0-4390-82B5-2CCADAAB1B96}" name="Valor Total" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{E683EF20-9F04-489F-B245-87EE163DBC3E}" name="Valor" dataDxfId="7" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{6CBFF6F8-BBF0-4390-82B5-2CCADAAB1B96}" name="Valor Total" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Valor Total])</totalsRowFormula>
     </tableColumn>
@@ -584,24 +638,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFC82DF-8B66-42C3-911C-E89DA602034C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="146" zoomScaleNormal="100" zoomScaleSheetLayoutView="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView view="pageBreakPreview" zoomScale="146" zoomScaleNormal="100" zoomScaleSheetLayoutView="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -611,17 +666,20 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -629,79 +687,221 @@
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>25</v>
-      </c>
       <c r="F2" s="1">
+        <v>22.31</v>
+      </c>
+      <c r="G2" s="1">
         <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22.07</v>
+      </c>
+      <c r="G3" s="3">
+        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G4" s="3">
+        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>21.99</v>
+      </c>
+      <c r="G5" s="3">
+        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11.99</v>
+      </c>
+      <c r="G6" s="3">
+        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>ROW()-2</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>ROW()-2</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="G8" s="3">
+        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" ref="A9:A10" si="0">ROW()-2</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="G9" s="3">
         <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A5" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="F4" s="3">
-        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="F10" s="1">
         <v>30</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G10" s="1">
         <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>ROW()-2</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2">
+        <f>18*12</f>
+        <v>216</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G11" s="3">
+        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
+      <c r="F12" s="4"/>
+      <c r="G12" s="5">
         <f>SUM(Table1[Valor Total])</f>
-        <v>131.69999999999999</v>
+        <v>479.28999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -714,4 +914,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F716EC4A-8D85-4EC7-9E68-DC17C6701E4E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Estimate/costs.xlsx
+++ b/Docs/Estimate/costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julit\source\Projects\ClimbEdge\Docs\Estimate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C098C2AC-D5A9-42AA-ADFD-582F040A28B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CCB652-61A8-454B-BD30-86EA769F1BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5443361D-16A8-4F27-B5AC-62FADFB7C971}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5443361D-16A8-4F27-B5AC-62FADFB7C971}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,27 +164,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -221,12 +220,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -236,53 +237,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -301,18 +259,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF5ABBDF-1FEA-429C-AE86-38CF263D3E2A}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowCount="1" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF5ABBDF-1FEA-429C-AE86-38CF263D3E2A}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowCount="1" headerRowDxfId="10">
   <autoFilter ref="A1:G11" xr:uid="{EF5ABBDF-1FEA-429C-AE86-38CF263D3E2A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5AAFB984-C85B-4BF1-A918-1C571672DC61}" name="#" totalsRowLabel="Total">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D2CB7489-ABE1-4BBC-85FE-71BA53EDF6A4}" name="Nombre" dataDxfId="9" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C86D0AB4-DEB6-40A8-9392-93A7487C0EE6}" name="Descripción" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{F216D570-7ECE-4417-99A9-CCD3AF39DFEE}" name="Link" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{30834DA3-1966-47EB-8A17-1138734385AE}" name="Cantidad" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E683EF20-9F04-489F-B245-87EE163DBC3E}" name="Valor" dataDxfId="7" totalsRowDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{6CBFF6F8-BBF0-4390-82B5-2CCADAAB1B96}" name="Valor Total" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{D2CB7489-ABE1-4BBC-85FE-71BA53EDF6A4}" name="Nombre" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C86D0AB4-DEB6-40A8-9392-93A7487C0EE6}" name="Descripción" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{F216D570-7ECE-4417-99A9-CCD3AF39DFEE}" name="Link" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{30834DA3-1966-47EB-8A17-1138734385AE}" name="Cantidad" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E683EF20-9F04-489F-B245-87EE163DBC3E}" name="Valor" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{6CBFF6F8-BBF0-4390-82B5-2CCADAAB1B96}" name="Valor Total" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Valor Total])</totalsRowFormula>
     </tableColumn>
@@ -640,51 +598,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFC82DF-8B66-42C3-911C-E89DA602034C}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="146" zoomScaleNormal="100" zoomScaleSheetLayoutView="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="146" zoomScaleNormal="100" zoomScaleSheetLayoutView="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
@@ -700,13 +658,13 @@
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2">
@@ -715,20 +673,20 @@
       <c r="F3" s="1">
         <v>22.07</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
         <v>22.07</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2">
@@ -737,20 +695,20 @@
       <c r="F4" s="1">
         <v>9.9499999999999993</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
         <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2">
@@ -759,20 +717,20 @@
       <c r="F5" s="1">
         <v>21.99</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
         <v>21.99</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2">
@@ -781,20 +739,20 @@
       <c r="F6" s="1">
         <v>11.99</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
         <v>11.99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2">
@@ -803,20 +761,20 @@
       <c r="F7" s="1">
         <v>9.99</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
         <v>9.99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="2">
@@ -825,50 +783,53 @@
       <c r="F8" s="1">
         <v>20.99</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
         <v>20.99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" ref="A9:A10" si="0">ROW()-2</f>
+        <f t="shared" ref="A9:A10" si="1">ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>16.7</v>
       </c>
-      <c r="G9" s="3">
-        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
-        <v>0</v>
+      <c r="G9" s="1">
+        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
+        <v>50.099999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>30</v>
       </c>
       <c r="G10" s="1">
         <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -876,32 +837,31 @@
         <f>ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="2">
-        <f>18*12</f>
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>1.25</v>
       </c>
-      <c r="G11" s="3">
-        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
-        <v>270</v>
+      <c r="G11" s="1">
+        <f>Table1[[#This Row],[Cantidad]]*Table1[[#This Row],[Valor]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5">
+      <c r="F12"/>
+      <c r="G12" s="3">
         <f>SUM(Table1[Valor Total])</f>
-        <v>479.28999999999996</v>
+        <v>169.39</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F716EC4A-8D85-4EC7-9E68-DC17C6701E4E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
